--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273233.8013374605</v>
+        <v>276926.4911591399</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763805</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091065</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6493293.82966772</v>
+        <v>6493293.829667719</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>37.81707264380224</v>
+        <v>196.5509751024173</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13.98329378456311</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -871,13 +873,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>176.1262882516941</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>109.3397730636965</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>69.61415340665111</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1138,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>399.0441766499195</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>19.8984304622902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>119.9137781239168</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>56.92670819126146</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1502,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
         <v>195.3773027531635</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>79.67821921325063</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>333.1952570656937</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
         <v>20.54110546596223</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>98.94574135710867</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>179.0597574373098</v>
       </c>
       <c r="G17" t="n">
-        <v>298.0066367268615</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>62.17807828502601</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>105.372810941241</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C20" t="n">
-        <v>46.58848906783886</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2239,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.0149076090959</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2293,10 +2295,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.52589087328231</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>392.4691241621589</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>95.74905717793048</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>138.3602290025708</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>145.6446901739629</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>51.11250223884466</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.6482037925043</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.6425927105685</v>
+        <v>386.8650699901663</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>155.6942298771797</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>127.8710203300643</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>40.3950232139772</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>312.6323142562196</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>115.2839811962483</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>399.0441766499195</v>
       </c>
       <c r="G35" t="n">
-        <v>392.564747250141</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3357,7 +3359,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>27.35334490128979</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>22.24184669399795</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>14.59094382085801</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3566,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3633,7 +3635,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
         <v>195.3773027531635</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>48.01732390352626</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.33547271864239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.1960340888587</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>106.9706214097038</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>128.309765016688</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>403.2658873081456</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.16006347429685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -4135,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.82695466627167</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>142.5359303380062</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500.9945609524824</v>
+        <v>1054.889944710562</v>
       </c>
       <c r="C2" t="n">
-        <v>500.9945609524824</v>
+        <v>644.7653540238317</v>
       </c>
       <c r="D2" t="n">
-        <v>500.9945609524824</v>
+        <v>240.3014241168922</v>
       </c>
       <c r="E2" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
         <v>41.76508562960205</v>
@@ -4328,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1695.912714533713</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>1312.152413668882</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.152413668882</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>911.2157406169719</v>
+        <v>1465.111124375051</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1724.070068790184</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1648.189235160388</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="C4" t="n">
-        <v>1477.095862722105</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="D4" t="n">
-        <v>1317.601218045015</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="E4" t="n">
-        <v>1156.690402913334</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="F4" t="n">
-        <v>992.0592770239257</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="G4" t="n">
-        <v>824.8088859494691</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="H4" t="n">
         <v>675.2014307549257</v>
@@ -4510,28 +4512,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>2074.129742303776</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S4" t="n">
-        <v>1887.737974183686</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T4" t="n">
-        <v>1648.189235160388</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U4" t="n">
-        <v>1648.189235160388</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V4" t="n">
-        <v>1648.189235160388</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W4" t="n">
-        <v>1648.189235160388</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="X4" t="n">
-        <v>1648.189235160388</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="Y4" t="n">
-        <v>1648.189235160388</v>
+        <v>842.4518218293823</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.878220478708</v>
+        <v>1294.272800950781</v>
       </c>
       <c r="C5" t="n">
-        <v>847.7536297919787</v>
+        <v>884.1482102640515</v>
       </c>
       <c r="D5" t="n">
-        <v>847.7536297919787</v>
+        <v>884.1482102640515</v>
       </c>
       <c r="E5" t="n">
-        <v>847.7536297919787</v>
+        <v>884.1482102640515</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>463.1177982177391</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2017.936954806717</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1668.099400143198</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1668.099400143198</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X5" t="n">
-        <v>1668.099400143198</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y5" t="n">
-        <v>1668.099400143198</v>
+        <v>1704.493980615271</v>
       </c>
     </row>
     <row r="6">
@@ -4626,19 +4628,19 @@
         <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4647,19 +4649,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="O6" t="n">
         <v>1192.007362767164</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
         <v>1708.850297433489</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.908511128883</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.908511128883</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E8" t="n">
-        <v>853.5682956457795</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
         <v>41.76508562960205</v>
@@ -4802,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1209.69369432892</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1209.69369432892</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1726.536628995245</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P9" t="n">
         <v>2058.694762117472</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4996,16 +4998,16 @@
         <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>777.1526093285881</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>777.1526093285881</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.557307563361</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.557307563361</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D11" t="n">
-        <v>1182.432279155364</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E11" t="n">
-        <v>1182.432279155364</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
         <v>41.76508562960205</v>
@@ -5042,19 +5044,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
+        <v>497.1688317915616</v>
+      </c>
+      <c r="M11" t="n">
         <v>1014.011766457887</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1530.854701124212</v>
       </c>
       <c r="N11" t="n">
         <v>1530.854701124212</v>
       </c>
       <c r="O11" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P11" t="n">
         <v>2047.697635790537</v>
@@ -5072,19 +5074,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>2030.752556034384</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.493980615271</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="X11" t="n">
-        <v>1704.493980615271</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="Y11" t="n">
-        <v>1303.557307563361</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>751.4208778585605</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M12" t="n">
-        <v>751.4208778585605</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N12" t="n">
-        <v>1268.263812524886</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>1785.106747191211</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P12" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5279,7 +5281,7 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
         <v>558.6080202959273</v>
@@ -5291,37 +5293,37 @@
         <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P14" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1952.973206274203</v>
+        <v>2007.771231769748</v>
       </c>
       <c r="U14" t="n">
-        <v>1952.973206274203</v>
+        <v>2007.771231769748</v>
       </c>
       <c r="V14" t="n">
-        <v>1603.135651610684</v>
+        <v>1657.933677106229</v>
       </c>
       <c r="W14" t="n">
-        <v>1266.574785887761</v>
+        <v>1657.933677106229</v>
       </c>
       <c r="X14" t="n">
-        <v>1266.574785887761</v>
+        <v>1257.290279275181</v>
       </c>
       <c r="Y14" t="n">
-        <v>1266.574785887761</v>
+        <v>856.3536062232714</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
         <v>469.7036984844747</v>
@@ -5343,13 +5345,13 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
@@ -5358,25 +5360,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.007362767164</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N15" t="n">
-        <v>1192.007362767164</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O15" t="n">
-        <v>1708.850297433489</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P15" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>960.0055634924552</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C16" t="n">
         <v>960.0055634924552</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U16" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V16" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W16" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X16" t="n">
-        <v>960.0055634924552</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.0055634924552</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1168.276232357462</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C17" t="n">
-        <v>1168.276232357462</v>
+        <v>1045.702027075742</v>
       </c>
       <c r="D17" t="n">
-        <v>763.8123024505221</v>
+        <v>1045.702027075742</v>
       </c>
       <c r="E17" t="n">
-        <v>763.8123024505221</v>
+        <v>631.3618115926383</v>
       </c>
       <c r="F17" t="n">
-        <v>342.7818904042097</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5513,52 +5515,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L17" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M17" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N17" t="n">
-        <v>1054.568412147452</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V17" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W17" t="n">
-        <v>1569.212905409372</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X17" t="n">
-        <v>1569.212905409372</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y17" t="n">
-        <v>1168.276232357462</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
@@ -5595,22 +5597,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N18" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O18" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>2048.100145893876</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>319.2956408368159</v>
+        <v>1022.8117031743</v>
       </c>
       <c r="C19" t="n">
-        <v>148.2022683985324</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D19" t="n">
-        <v>148.2022683985324</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5698,25 +5700,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U19" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0650117219859</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W19" t="n">
-        <v>506.9953472308603</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X19" t="n">
-        <v>506.9953472308603</v>
+        <v>1247.547401785535</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.9953472308603</v>
+        <v>1022.8117031743</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1225.22700482164</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C20" t="n">
-        <v>1178.167924955136</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D20" t="n">
-        <v>773.7039950481965</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E20" t="n">
-        <v>773.7039950481965</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>352.673583001884</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
         <v>41.76508562960205</v>
@@ -5756,22 +5758,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L20" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M20" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N20" t="n">
-        <v>692.8507596625949</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O20" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5780,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.22700482164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>1225.22700482164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>1225.22700482164</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L21" t="n">
-        <v>497.5713418949007</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M21" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N21" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O21" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>503.2668642681101</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C22" t="n">
-        <v>474.9689777942758</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>474.9689777942758</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>474.9689777942758</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
         <v>474.9689777942758</v>
@@ -5941,19 +5943,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U22" t="n">
-        <v>777.1526093285881</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V22" t="n">
-        <v>503.2668642681101</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W22" t="n">
-        <v>503.2668642681101</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X22" t="n">
-        <v>503.2668642681101</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y22" t="n">
-        <v>503.2668642681101</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.195547152093</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="C23" t="n">
-        <v>918.0709564653636</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D23" t="n">
-        <v>918.0709564653636</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7307409822603</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F23" t="n">
-        <v>82.70032893594782</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G23" t="n">
-        <v>82.70032893594782</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>82.70032893594782</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M23" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N23" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6023,16 +6025,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>1738.416726816583</v>
+        <v>1691.820822730447</v>
       </c>
       <c r="Y23" t="n">
-        <v>1738.416726816583</v>
+        <v>1691.820822730447</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959273</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962253</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>780.8810922913383</v>
+        <v>352.6162651411894</v>
       </c>
       <c r="C25" t="n">
-        <v>684.1648729196913</v>
+        <v>181.5228927029059</v>
       </c>
       <c r="D25" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
         <v>41.76508562960205</v>
@@ -6169,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V25" t="n">
-        <v>1059.950756782464</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W25" t="n">
-        <v>780.8810922913383</v>
+        <v>778.6598336755503</v>
       </c>
       <c r="X25" t="n">
-        <v>780.8810922913383</v>
+        <v>540.3159715352338</v>
       </c>
       <c r="Y25" t="n">
-        <v>780.8810922913383</v>
+        <v>540.3159715352338</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2088.254281480102</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="C26" t="n">
-        <v>1690.327927173125</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.863997266186</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E26" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G26" t="n">
         <v>41.76508562960205</v>
@@ -6227,25 +6229,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M26" t="n">
         <v>1075.450954962253</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O26" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6254,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1941.138432819534</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1684.077941079044</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1684.077941079044</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1684.077941079044</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>1684.077941079044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.254281480102</v>
+        <v>1283.141268027134</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>558.6080202959273</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147452</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O27" t="n">
-        <v>1571.411346813777</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P27" t="n">
         <v>2088.254281480102</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1131.098935930739</v>
+        <v>862.3222662622152</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>691.2288938239317</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>691.2288938239317</v>
       </c>
       <c r="E28" t="n">
         <v>639.6001036836846</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1542.226402662064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1355.834634541974</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1355.834634541974</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.834634541974</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V28" t="n">
-        <v>1355.834634541974</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.834634541974</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="X28" t="n">
-        <v>1355.834634541974</v>
+        <v>1050.02197265626</v>
       </c>
       <c r="Y28" t="n">
-        <v>1131.098935930739</v>
+        <v>1050.02197265626</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1277.384018269584</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C29" t="n">
-        <v>867.259427582854</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D29" t="n">
-        <v>462.7954976759145</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E29" t="n">
         <v>462.7954976759145</v>
@@ -6461,28 +6463,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O29" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6506,7 +6508,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y29" t="n">
-        <v>1687.605197934073</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I30" t="n">
         <v>41.76508562960205</v>
@@ -6543,19 +6545,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L30" t="n">
-        <v>537.7254774811262</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.568412147451</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N30" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1014.752890035065</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C31" t="n">
-        <v>843.6595175967814</v>
+        <v>1477.095862722105</v>
       </c>
       <c r="D31" t="n">
-        <v>684.1648729196913</v>
+        <v>1317.601218045015</v>
       </c>
       <c r="E31" t="n">
-        <v>523.2540577880108</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F31" t="n">
-        <v>358.622931898602</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L31" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M31" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N31" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O31" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P31" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q31" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U31" t="n">
-        <v>1331.615243227154</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="V31" t="n">
-        <v>1331.615243227154</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.615243227154</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.452596429109</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="Y31" t="n">
-        <v>1202.452596429109</v>
+        <v>1805.456134026226</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1772.464065059678</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C32" t="n">
-        <v>1362.339474372949</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="D32" t="n">
-        <v>957.8755444660092</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="E32" t="n">
-        <v>957.8755444660092</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F32" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L32" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M32" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N32" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O32" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P32" t="n">
         <v>2047.697635790537</v>
@@ -6737,13 +6739,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1772.464065059678</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X32" t="n">
-        <v>1772.464065059678</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y32" t="n">
-        <v>1772.464065059678</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
         <v>469.7036984844747</v>
@@ -6765,40 +6767,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K33" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L33" t="n">
-        <v>751.4208778585605</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.263812524886</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N33" t="n">
-        <v>1268.263812524886</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O33" t="n">
-        <v>1785.106747191211</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1369.442798071055</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U34" t="n">
-        <v>1369.442798071055</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V34" t="n">
-        <v>1369.442798071055</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W34" t="n">
-        <v>1369.442798071055</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X34" t="n">
-        <v>1131.098935930739</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y34" t="n">
-        <v>1131.098935930739</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2088.254281480102</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.129690793372</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D35" t="n">
-        <v>1273.665760886433</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E35" t="n">
-        <v>859.3255454033297</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F35" t="n">
-        <v>438.2951333570172</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G35" t="n">
         <v>41.76508562960205</v>
@@ -6935,28 +6937,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L35" t="n">
-        <v>295.9505570973564</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M35" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N35" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O35" t="n">
-        <v>1329.636426430007</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6993,7 +6995,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
         <v>469.7036984844747</v>
@@ -7002,34 +7004,34 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K36" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L36" t="n">
-        <v>1025.008892784822</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M36" t="n">
-        <v>1541.851827451147</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N36" t="n">
-        <v>2058.694762117472</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O36" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P36" t="n">
         <v>2058.694762117472</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>128.1168483125289</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="C38" t="n">
-        <v>128.1168483125289</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="D38" t="n">
-        <v>128.1168483125289</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="E38" t="n">
-        <v>128.1168483125289</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="F38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>497.1688317915616</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L38" t="n">
-        <v>1014.011766457887</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M38" t="n">
-        <v>1530.854701124212</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N38" t="n">
-        <v>2047.697635790537</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O38" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2073.515954388326</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2073.515954388326</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U38" t="n">
-        <v>2073.515954388326</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V38" t="n">
-        <v>1723.678399724807</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W38" t="n">
-        <v>1339.918098859976</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X38" t="n">
-        <v>939.2747010289282</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y38" t="n">
-        <v>538.3380279770183</v>
+        <v>474.4527771062106</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K39" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L39" t="n">
-        <v>1207.227134123859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M39" t="n">
-        <v>1571.411346813777</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N39" t="n">
-        <v>2088.254281480102</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>690.627119468566</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C40" t="n">
-        <v>519.5337470302825</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D40" t="n">
-        <v>519.5337470302825</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="E40" t="n">
-        <v>358.622931898602</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="F40" t="n">
-        <v>358.622931898602</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
         <v>41.76508562960205</v>
@@ -7360,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1014.480089736098</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>735.4104252449724</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>735.4104252449724</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>690.627119468566</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1368.000135152739</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C41" t="n">
-        <v>957.8755444660092</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D41" t="n">
-        <v>957.8755444660092</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E41" t="n">
-        <v>957.8755444660092</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F41" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P41" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1952.973206274203</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.973206274203</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y41" t="n">
-        <v>1552.036533222293</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L42" t="n">
-        <v>234.5779431922353</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M42" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N42" t="n">
-        <v>1268.263812524886</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O42" t="n">
-        <v>1785.106747191211</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>372.3531027449756</v>
+        <v>1158.40534984338</v>
       </c>
       <c r="C43" t="n">
-        <v>201.259730306692</v>
+        <v>987.311977405097</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960205</v>
+        <v>827.8173327280069</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>666.9065175963265</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1356.285440676672</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1116.736701653374</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U43" t="n">
-        <v>833.938554199498</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V43" t="n">
-        <v>560.0528091390199</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W43" t="n">
-        <v>560.0528091390199</v>
+        <v>1809.184616988977</v>
       </c>
       <c r="X43" t="n">
-        <v>560.0528091390199</v>
+        <v>1570.84075484866</v>
       </c>
       <c r="Y43" t="n">
-        <v>560.0528091390199</v>
+        <v>1346.105056237425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1274.395973214227</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C44" t="n">
-        <v>1274.395973214227</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D44" t="n">
-        <v>1274.395973214227</v>
+        <v>863.4445812219433</v>
       </c>
       <c r="E44" t="n">
-        <v>860.0557577311233</v>
+        <v>449.10436573884</v>
       </c>
       <c r="F44" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
         <v>41.76508562960205</v>
@@ -7649,16 +7651,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L44" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M44" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N44" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O44" t="n">
         <v>2088.254281480102</v>
@@ -7685,13 +7687,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X44" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y44" t="n">
-        <v>1274.395973214227</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="45">
@@ -7704,7 +7706,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
         <v>469.7036984844747</v>
@@ -7713,13 +7715,13 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
         <v>41.76508562960205</v>
@@ -7728,25 +7730,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L45" t="n">
-        <v>558.6080202959273</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N45" t="n">
-        <v>1592.293889628578</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O45" t="n">
-        <v>2058.694762117472</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1014.752890035065</v>
+        <v>276.046232406238</v>
       </c>
       <c r="C46" t="n">
-        <v>843.6595175967814</v>
+        <v>276.046232406238</v>
       </c>
       <c r="D46" t="n">
-        <v>684.1648729196913</v>
+        <v>276.046232406238</v>
       </c>
       <c r="E46" t="n">
-        <v>523.2540577880108</v>
+        <v>276.046232406238</v>
       </c>
       <c r="F46" t="n">
-        <v>358.622931898602</v>
+        <v>276.046232406238</v>
       </c>
       <c r="G46" t="n">
-        <v>191.3725408241454</v>
+        <v>276.046232406238</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>126.4387772116947</v>
       </c>
       <c r="I46" t="n">
         <v>41.76508562960205</v>
@@ -7828,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U46" t="n">
-        <v>1571.163982250452</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V46" t="n">
-        <v>1571.163982250452</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.163982250452</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X46" t="n">
-        <v>1427.188295040345</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="Y46" t="n">
-        <v>1202.452596429109</v>
+        <v>463.7459388002824</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7985,10 +7987,10 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>296.5410069764446</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -7997,7 +7999,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8061,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>422.1224761037308</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1513772538824</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>208.9223179663055</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>395.5690244730517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>525.3716274158285</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8690,7 +8692,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
         <v>555.4891820648243</v>
@@ -8699,13 +8701,13 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>93.75312630912974</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>362.9022490996783</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8927,10 +8929,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
@@ -8939,7 +8941,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>228.7885022587807</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -8948,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9008,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>236.9512395019908</v>
+        <v>558.5343765177352</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9021,13 +9023,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>339.7024893595824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>558.5343765177347</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.25235142021847</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9404,13 +9406,13 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N20" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
         <v>615.2533459958087</v>
@@ -9419,10 +9421,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>501.1513772538824</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>263.5046911326701</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>494.5586588013271</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>232.5803491573229</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>269.754811036119</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>558.5343765177352</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>360.4692655976433</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N29" t="n">
         <v>92.91229075661933</v>
@@ -10133,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>93.75312630912974</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
         <v>615.3537948270711</v>
@@ -10361,10 +10363,10 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P32" t="n">
-        <v>296.9001458002834</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793176</v>
       </c>
       <c r="P33" t="n">
-        <v>330.6111652313504</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M35" t="n">
         <v>615.3537948270711</v>
@@ -10598,16 +10600,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>334.2508956958897</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>394.1192645454833</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>579.627854108443</v>
@@ -10677,10 +10679,10 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>525.3716274158285</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>549.1401736751965</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>425.4271248393445</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
@@ -11075,13 +11077,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>594.6194560602019</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>205.3433246237784</v>
       </c>
       <c r="P42" t="n">
-        <v>330.6111652313499</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11299,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
         <v>615.3537948270711</v>
@@ -11309,7 +11311,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11376,10 +11378,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>579.627854108443</v>
@@ -11388,16 +11390,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O45" t="n">
-        <v>528.8634714130247</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>94.8193679181835</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>372.37974068447</v>
+        <v>213.645838225855</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22595,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -22705,22 +22707,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.43669735679123</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,13 +22761,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>100.1526795945202</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22793,16 +22795,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>295.3012282023997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,13 +22840,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>184.8757334164339</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23024,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>17.77593127592979</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23075,7 +23077,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>234.5914563607948</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23084,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23179,7 +23181,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>33.20545812544611</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23188,16 +23190,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,13 +23238,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.5055124839533</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23312,19 +23314,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>197.5631786318235</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>140.3061999993591</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>46.72744079048942</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0146821618048</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>237.7603504885395</v>
       </c>
       <c r="G17" t="n">
-        <v>106.6343645392346</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -23792,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>107.2043604288747</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>53.92889603912269</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C20" t="n">
-        <v>359.4348557120237</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24020,16 +24022,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24127,16 +24129,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>141.3675311048048</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>44.96235418281525</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,13 +24265,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>4.167839690578035</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>73.63338153597017</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>19.5394692277483</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24494,10 +24496,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>74.33972903864682</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24509,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>108.1892047415191</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.77178734885004</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24664,10 +24666,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2847136108223367</v>
+        <v>10.06223633122448</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>30.12847945292421</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>108.0894031888491</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>369.801790114295</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>67.29038359996355</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8692704368166</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="G35" t="n">
-        <v>12.0762540159551</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25372,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>248.9256229449246</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25400,7 +25402,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>394.5782612318513</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25409,7 +25411,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.3373206329821</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>114.9674907269884</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25600,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>178.1528689064805</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.9229337789859</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25688,7 +25690,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>373.5841168694282</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081084</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>56.21808542220083</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>13.55422061770372</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>367.7672428470939</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>31.35563077044543</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>93.42449318090726</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561551.9154541974</v>
+        <v>561551.9154541976</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>561551.9154541974</v>
+        <v>561551.9154541976</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561551.9154541974</v>
+        <v>561551.9154541976</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561551.9154541974</v>
+        <v>561551.9154541976</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26322,10 @@
         <v>123668.3592209684</v>
       </c>
       <c r="E2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
       <c r="F2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
       <c r="G2" t="n">
         <v>123668.3592209684</v>
@@ -26335,16 +26337,16 @@
         <v>123668.3592209684</v>
       </c>
       <c r="J2" t="n">
+        <v>123668.3592209684</v>
+      </c>
+      <c r="K2" t="n">
+        <v>123668.3592209684</v>
+      </c>
+      <c r="L2" t="n">
+        <v>123668.3592209684</v>
+      </c>
+      <c r="M2" t="n">
         <v>123668.3592209683</v>
-      </c>
-      <c r="K2" t="n">
-        <v>123668.3592209683</v>
-      </c>
-      <c r="L2" t="n">
-        <v>123668.3592209683</v>
-      </c>
-      <c r="M2" t="n">
-        <v>123668.3592209684</v>
       </c>
       <c r="N2" t="n">
         <v>123668.3592209684</v>
@@ -26353,7 +26355,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="P2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
     </row>
     <row r="3">
@@ -26522,46 +26524,46 @@
         <v>-136403.8457068847</v>
       </c>
       <c r="C6" t="n">
-        <v>38551.66418622944</v>
+        <v>38551.66418622945</v>
       </c>
       <c r="D6" t="n">
-        <v>38551.66418622941</v>
+        <v>38551.6641862294</v>
       </c>
       <c r="E6" t="n">
-        <v>72179.26418622941</v>
+        <v>72179.26418622937</v>
       </c>
       <c r="F6" t="n">
-        <v>72179.2641862294</v>
+        <v>72179.26418622935</v>
       </c>
       <c r="G6" t="n">
         <v>72179.26418622941</v>
       </c>
       <c r="H6" t="n">
+        <v>72179.26418622941</v>
+      </c>
+      <c r="I6" t="n">
+        <v>72179.26418622938</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-64415.53661966557</v>
+      </c>
+      <c r="K6" t="n">
         <v>72179.2641862294</v>
       </c>
-      <c r="I6" t="n">
-        <v>72179.2641862294</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-64415.53661966563</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>72179.26418622938</v>
+      </c>
+      <c r="M6" t="n">
+        <v>72179.26418622937</v>
+      </c>
+      <c r="N6" t="n">
+        <v>72179.26418622943</v>
+      </c>
+      <c r="O6" t="n">
+        <v>72179.26418622938</v>
+      </c>
+      <c r="P6" t="n">
         <v>72179.26418622934</v>
-      </c>
-      <c r="L6" t="n">
-        <v>72179.26418622937</v>
-      </c>
-      <c r="M6" t="n">
-        <v>72179.2641862294</v>
-      </c>
-      <c r="N6" t="n">
-        <v>72179.2641862294</v>
-      </c>
-      <c r="O6" t="n">
-        <v>72179.2641862294</v>
-      </c>
-      <c r="P6" t="n">
-        <v>72179.2641862294</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,10 +34707,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34717,7 +34719,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34781,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>367.8628411009271</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>445.0368534430334</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>176.5650354103359</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>338.0047407346343</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130247</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>460.0037840019794</v>
@@ -35419,13 +35421,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
+        <v>40.55973291537975</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
@@ -35659,7 +35661,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>135.5987266329976</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>179.3869557635734</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L17" t="n">
-        <v>244.2170912967376</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,13 +36126,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N20" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>522.0635703700256</v>
@@ -36139,10 +36141,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="N23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="P26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N26" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O26" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M27" t="n">
-        <v>500.9700927793178</v>
       </c>
       <c r="N27" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
+        <v>40.55973291537975</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O30" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
         <v>522.0635703700256</v>
@@ -37081,10 +37083,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P32" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
+        <v>500.9700927793177</v>
+      </c>
+      <c r="P33" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P33" t="n">
-        <v>276.3515302285466</v>
-      </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M35" t="n">
         <v>522.0635703700256</v>
@@ -37318,16 +37320,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>338.0047407346343</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>522.0635703700256</v>
@@ -37397,10 +37399,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>471.1119924130247</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>460.0037840019794</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N38" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M39" t="n">
-        <v>367.8628411009271</v>
       </c>
       <c r="N39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37797,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
+        <v>147.5918456237784</v>
+      </c>
+      <c r="P42" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P42" t="n">
-        <v>276.3515302285462</v>
-      </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
         <v>522.0635703700256</v>
@@ -38029,7 +38031,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>522.0635703700256</v>
@@ -38108,16 +38110,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O45" t="n">
-        <v>471.1119924130247</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>276926.4911591399</v>
+        <v>271197.0953279132</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -667,10 +667,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>196.5509751024173</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>392.5647472501408</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>146.1443589049255</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -873,13 +873,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>176.1262882516941</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>109.3397730636965</v>
+        <v>394.594714803274</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="7">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>131.5813135126068</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1138,13 +1138,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>166.8806507775566</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1347,19 +1347,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>112.725608605076</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>56.92670819126146</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>294.7228925766561</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464124</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>217.1774695294477</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>135.741977871972</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>79.67821921325063</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>179.0597574373098</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>302.9885438228919</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.17807828502601</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>227.0672929610288</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>227.9119153829785</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>21.79352378786437</v>
       </c>
       <c r="C22" t="n">
-        <v>98.94574135710867</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2250,10 +2250,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -2289,19 +2289,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>35.36349957583958</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>392.4691241621589</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>138.3602290025708</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>32.29176041177745</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>145.6446901739629</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>51.11250223884466</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>200.1250422946332</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>316.2580508297733</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.8650699901663</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.6942298771797</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>40.3950232139772</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>274.5397485035438</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3204,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>13.39382524517914</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>399.0441766499195</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>346.6630339611676</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>22.24184669399795</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3565,13 +3565,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>270.004589166743</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.01732390352626</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3720,16 +3720,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>168.18216512921</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>292.5829224701816</v>
       </c>
       <c r="W41" t="n">
-        <v>6.338580986754886</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097038</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>403.2658873081456</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>202.4633017163438</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.7373838273862</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>83.82695466627167</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.889944710562</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C2" t="n">
-        <v>644.7653540238317</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D2" t="n">
-        <v>240.3014241168922</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F2" t="n">
         <v>41.76508562960205</v>
@@ -4333,16 +4333,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
         <v>1209.69369432892</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.111124375051</v>
+        <v>1691.724233752687</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
         <v>240.2510026593071</v>
@@ -4412,16 +4412,16 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
         <v>1192.007362767164</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>842.4518218293823</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="C4" t="n">
-        <v>842.4518218293823</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="D4" t="n">
-        <v>842.4518218293823</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="E4" t="n">
-        <v>842.4518218293823</v>
+        <v>619.9702771596578</v>
       </c>
       <c r="F4" t="n">
-        <v>842.4518218293823</v>
+        <v>455.3391512702491</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2014307549257</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>1020.35716349776</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W4" t="n">
-        <v>842.4518218293823</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="X4" t="n">
-        <v>842.4518218293823</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="Y4" t="n">
-        <v>842.4518218293823</v>
+        <v>780.8810922913383</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1294.272800950781</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="C5" t="n">
-        <v>884.1482102640515</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="D5" t="n">
-        <v>884.1482102640515</v>
+        <v>854.6858211160124</v>
       </c>
       <c r="E5" t="n">
-        <v>884.1482102640515</v>
+        <v>440.3456056329092</v>
       </c>
       <c r="F5" t="n">
-        <v>463.1177982177391</v>
+        <v>440.3456056329092</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1250.250340018485</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.493980615271</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.493980615271</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.493980615271</v>
+        <v>1259.149751022952</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>690.384199457534</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4691,7 +4691,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>324.2829585136473</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>324.2829585136473</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>324.2829585136473</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>856.3536062232714</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>1045.702027075742</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F8" t="n">
         <v>41.76508562960205</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2068.154856770718</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>2068.154856770718</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.154856770718</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X8" t="n">
-        <v>1667.511458939671</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1266.574785887761</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844747</v>
@@ -4871,40 +4871,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1031.359223990826</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1270.693821706375</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C11" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E11" t="n">
         <v>41.76508562960205</v>
@@ -5047,16 +5047,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N11" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P11" t="n">
         <v>2047.697635790537</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2030.752556034384</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>1680.915001370864</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W11" t="n">
-        <v>1680.915001370864</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X11" t="n">
-        <v>1680.915001370864</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y11" t="n">
-        <v>1680.915001370864</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1531.257211227551</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>1009.29617030545</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>789.9249889625739</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>565.1892903513386</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>856.3536062232714</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="C14" t="n">
-        <v>446.2290155365415</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>576.1384546463987</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O14" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2007.771231769748</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2007.771231769748</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V14" t="n">
-        <v>1657.933677106229</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W14" t="n">
-        <v>1657.933677106229</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X14" t="n">
-        <v>1257.290279275181</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y14" t="n">
-        <v>856.3536062232714</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N15" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5466,22 +5466,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1455.826617762472</v>
+        <v>767.0137984849873</v>
       </c>
       <c r="C17" t="n">
-        <v>1045.702027075742</v>
+        <v>767.0137984849873</v>
       </c>
       <c r="D17" t="n">
-        <v>1045.702027075742</v>
+        <v>767.0137984849873</v>
       </c>
       <c r="E17" t="n">
-        <v>631.3618115926383</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H17" t="n">
         <v>41.76508562960205</v>
@@ -5515,25 +5515,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W17" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X17" t="n">
-        <v>1866.047797426961</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y17" t="n">
-        <v>1866.047797426961</v>
+        <v>767.0137984849873</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147451</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.8117031743</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>1247.547401785535</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.8117031743</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1695.988587952916</v>
+        <v>680.7074256791724</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.863997266186</v>
+        <v>680.7074256791724</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F20" t="n">
         <v>450.4933697367699</v>
@@ -5752,25 +5752,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M20" t="n">
-        <v>1054.568412147452</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N20" t="n">
-        <v>1054.568412147452</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O20" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>680.7074256791724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
         <v>41.76508562960205</v>
@@ -5834,22 +5834,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M21" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N21" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O21" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P21" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
         <v>2058.694762117472</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1059.950756782464</v>
+        <v>628.1240465285898</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>628.1240465285898</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G22" t="n">
         <v>307.7185867198193</v>
@@ -5937,25 +5937,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T22" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U22" t="n">
-        <v>1059.950756782464</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V22" t="n">
-        <v>1059.950756782464</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W22" t="n">
-        <v>1059.950756782464</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X22" t="n">
-        <v>1059.950756782464</v>
+        <v>650.137706920372</v>
       </c>
       <c r="Y22" t="n">
-        <v>1059.950756782464</v>
+        <v>650.137706920372</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1281.599643065957</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="C23" t="n">
-        <v>1281.599643065957</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="D23" t="n">
-        <v>877.1357131590178</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="E23" t="n">
-        <v>462.7954976759145</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960205</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
         <v>41.76508562960205</v>
@@ -5992,16 +5992,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M23" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N23" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X23" t="n">
-        <v>1691.820822730447</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y23" t="n">
-        <v>1691.820822730447</v>
+        <v>474.7460523270731</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M24" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N24" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O24" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P24" t="n">
         <v>1708.850297433488</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352.6162651411894</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>181.5228927029059</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
         <v>41.76508562960205</v>
@@ -6180,19 +6180,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1331.615243227154</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1057.729498166676</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>778.6598336755503</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>540.3159715352338</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.3159715352338</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>872.9200883626444</v>
+        <v>160.7347881224051</v>
       </c>
       <c r="C26" t="n">
-        <v>462.7954976759145</v>
+        <v>160.7347881224051</v>
       </c>
       <c r="D26" t="n">
-        <v>462.7954976759145</v>
+        <v>160.7347881224051</v>
       </c>
       <c r="E26" t="n">
-        <v>462.7954976759145</v>
+        <v>160.7347881224051</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>160.7347881224051</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>160.7347881224051</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962253</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O26" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.138432819534</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U26" t="n">
-        <v>1684.077941079044</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V26" t="n">
-        <v>1684.077941079044</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W26" t="n">
-        <v>1684.077941079044</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X26" t="n">
-        <v>1684.077941079044</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y26" t="n">
-        <v>1283.141268027134</v>
+        <v>160.7347881224051</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M27" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1268.263812524886</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O27" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>862.3222662622152</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C28" t="n">
-        <v>691.2288938239317</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D28" t="n">
-        <v>691.2288938239317</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
         <v>41.76508562960205</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1369.017474882136</v>
       </c>
       <c r="U28" t="n">
-        <v>1288.365834796576</v>
+        <v>1086.21932742826</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.365834796576</v>
+        <v>812.3335823677817</v>
       </c>
       <c r="W28" t="n">
-        <v>1288.365834796576</v>
+        <v>533.263917876656</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.02197265626</v>
+        <v>533.263917876656</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.02197265626</v>
+        <v>533.263917876656</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1287.260303845748</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C29" t="n">
-        <v>877.1357131590178</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D29" t="n">
-        <v>877.1357131590178</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E29" t="n">
-        <v>462.7954976759145</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H29" t="n">
         <v>41.76508562960205</v>
@@ -6463,22 +6463,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M29" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O29" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
         <v>2047.697635790537</v>
@@ -6490,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.481483510237</v>
+        <v>672.1261595976147</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
         <v>469.7036984844747</v>
@@ -6530,40 +6530,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>1477.095862722105</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>1317.601218045015</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1805.456134026226</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1805.456134026226</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1805.456134026226</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1805.456134026226</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1805.456134026226</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>492.6927300678241</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C32" t="n">
-        <v>82.56813938109417</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D32" t="n">
-        <v>82.56813938109417</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F32" t="n">
         <v>41.76508562960205</v>
@@ -6700,52 +6700,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N32" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.493980615271</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X32" t="n">
-        <v>1303.850582784223</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="Y32" t="n">
-        <v>902.9139097323135</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960205</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O33" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1131.098935930739</v>
+        <v>705.6507901634313</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
         <v>41.76508562960205</v>
@@ -6885,25 +6885,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V34" t="n">
-        <v>1571.163982250452</v>
+        <v>1131.694358697792</v>
       </c>
       <c r="W34" t="n">
-        <v>1571.163982250452</v>
+        <v>1131.694358697792</v>
       </c>
       <c r="X34" t="n">
-        <v>1543.534340936018</v>
+        <v>893.3504965574757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1318.798642324783</v>
+        <v>893.3504965574757</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1678.033101815613</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.908511128883</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D35" t="n">
-        <v>1267.908511128883</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E35" t="n">
-        <v>853.5682956457795</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>702.8382637707402</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
         <v>41.76508562960205</v>
@@ -6940,13 +6940,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L35" t="n">
-        <v>497.1688317915616</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.011766457887</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N35" t="n">
         <v>1530.854701124212</v>
@@ -6964,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D36" t="n">
         <v>469.7036984844747</v>
@@ -7004,40 +7004,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G36" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N36" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O36" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1131.098935930739</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C37" t="n">
-        <v>960.0055634924552</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
         <v>41.76508562960205</v>
@@ -7122,25 +7122,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1571.163982250452</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="W37" t="n">
-        <v>1571.163982250452</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="X37" t="n">
-        <v>1543.534340936018</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y37" t="n">
-        <v>1318.798642324783</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.23159744172119</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="C38" t="n">
-        <v>64.23159744172119</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D38" t="n">
-        <v>64.23159744172119</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E38" t="n">
-        <v>64.23159744172119</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G38" t="n">
         <v>41.76508562960205</v>
@@ -7174,52 +7174,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>733.4074053521598</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L38" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M38" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N38" t="n">
-        <v>733.4074053521598</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O38" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1259.149751022952</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W38" t="n">
-        <v>875.3894501581206</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X38" t="n">
-        <v>875.3894501581206</v>
+        <v>723.2252779860053</v>
       </c>
       <c r="Y38" t="n">
-        <v>474.4527771062106</v>
+        <v>450.4933697367699</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O39" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
         <v>41.76508562960205</v>
@@ -7359,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W40" t="n">
-        <v>495.8616862216745</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X40" t="n">
-        <v>257.5178240813579</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y40" t="n">
-        <v>257.5178240813579</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1270.693821706375</v>
+        <v>1178.167924955136</v>
       </c>
       <c r="C41" t="n">
-        <v>860.5692310196448</v>
+        <v>1178.167924955136</v>
       </c>
       <c r="D41" t="n">
-        <v>456.1053011127053</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E41" t="n">
-        <v>41.76508562960205</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
         <v>41.76508562960205</v>
@@ -7411,16 +7411,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L41" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M41" t="n">
-        <v>692.8507596625949</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N41" t="n">
         <v>692.8507596625949</v>
@@ -7438,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1178.167924955136</v>
       </c>
       <c r="W41" t="n">
-        <v>2081.851674422774</v>
+        <v>1178.167924955136</v>
       </c>
       <c r="X41" t="n">
-        <v>2081.851674422774</v>
+        <v>1178.167924955136</v>
       </c>
       <c r="Y41" t="n">
-        <v>1680.915001370864</v>
+        <v>1178.167924955136</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1158.40534984338</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>987.311977405097</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>827.8173327280069</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>666.9065175963265</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1809.184616988977</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1570.84075484866</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>1346.105056237425</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1678.033101815613</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.908511128883</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="D44" t="n">
-        <v>863.4445812219433</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="E44" t="n">
-        <v>449.10436573884</v>
+        <v>667.303883247979</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>246.2734712016666</v>
       </c>
       <c r="G44" t="n">
         <v>41.76508562960205</v>
@@ -7648,19 +7648,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O44" t="n">
         <v>2088.254281480102</v>
@@ -7678,22 +7678,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V44" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W44" t="n">
-        <v>2088.254281480102</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X44" t="n">
-        <v>2088.254281480102</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="Y44" t="n">
-        <v>2088.254281480102</v>
+        <v>1081.644098731082</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1014.414276561226</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N45" t="n">
-        <v>1531.257211227551</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O45" t="n">
-        <v>2048.100145893876</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>276.046232406238</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="C46" t="n">
-        <v>276.046232406238</v>
+        <v>350.8671855012354</v>
       </c>
       <c r="D46" t="n">
-        <v>276.046232406238</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E46" t="n">
-        <v>276.046232406238</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F46" t="n">
-        <v>276.046232406238</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G46" t="n">
-        <v>276.046232406238</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H46" t="n">
-        <v>126.4387772116947</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
         <v>41.76508562960205</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U46" t="n">
-        <v>1016.701348351886</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V46" t="n">
-        <v>742.815603291408</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W46" t="n">
-        <v>463.7459388002824</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X46" t="n">
-        <v>463.7459388002824</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y46" t="n">
-        <v>463.7459388002824</v>
+        <v>497.0665631046558</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8060,7 +8060,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8069,10 +8069,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>559.8834573428708</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>537.361002360626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>524.3053858067748</v>
       </c>
       <c r="O6" t="n">
-        <v>564.4415429491208</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>269.4773261669552</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>525.3716274158285</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
@@ -8707,7 +8707,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>553.6531472828635</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>93.75312630912974</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P12" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O14" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M15" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9023,13 +9023,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>553.1935596277625</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>558.5343765177347</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9263,7 +9263,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>594.2603172363632</v>
+        <v>535.1658287548267</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>87.31214281472352</v>
@@ -9482,22 +9482,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>501.1513772538824</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9640,19 +9640,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M23" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>232.5803491573229</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O26" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -9965,19 +9965,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428707</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>360.4692655976433</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>296.5410069764447</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
@@ -10199,22 +10199,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>93.75312630912974</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>558.7215717793176</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
         <v>615.2533459958087</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>525.3716274158285</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>531.0119939709983</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O39" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M41" t="n">
-        <v>494.1995199774884</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
         <v>615.2533459958087</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11153,16 +11153,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>205.3433246237784</v>
+        <v>334.1030092285466</v>
       </c>
       <c r="P42" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
         <v>617.5489684328704</v>
@@ -11308,10 +11308,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O44" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>395.5690244730516</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>94.8193679181835</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,10 +22555,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>213.645838225855</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22600,7 +22600,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22615,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.362559071250018</v>
       </c>
     </row>
     <row r="3">
@@ -22713,16 +22713,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.43352825878648</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22761,13 +22761,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>100.1526795945202</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>295.3012282023997</v>
+        <v>10.04628646282208</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22837,16 +22837,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>26.31838471771223</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23026,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>233.5386398303134</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23074,10 +23074,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>234.5914563607948</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23086,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>109.7627330200469</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>197.5631786318235</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>102.2044137447347</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>18.78295398946571</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>268.8990233941241</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>140.3061999993591</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>237.7603504885395</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,10 +23797,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>93.93876249849893</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>107.2043604288747</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>172.5073752248915</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>164.0291855422396</v>
       </c>
       <c r="C22" t="n">
-        <v>70.43669735679198</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>369.2775016902565</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.167839690578035</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>19.5394692277483</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>275.5076519867818</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>74.33972903864682</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>108.1892047415191</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>37.02820933843168</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>89.86091703807125</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.06223633122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.12847945292421</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>369.801790114295</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>122.0972153491932</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>257.7530623646941</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>57.97796730492848</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>129.840962977198</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25377,7 +25377,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25402,10 +25402,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>394.5782612318513</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>126.9227171546478</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25560,10 +25560,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>114.9674907269884</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25599,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>108.0968027170043</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>53.75625664670247</v>
       </c>
       <c r="W41" t="n">
-        <v>373.5841168694282</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081084</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>13.55422061770372</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>202.1776995497523</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25918,7 +25918,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -25927,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>24.64505488651443</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>31.35563077044543</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561551.9154541974</v>
+        <v>561551.9154541976</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561551.9154541974</v>
+        <v>561551.9154541976</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561551.9154541976</v>
+        <v>561551.9154541974</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
       <c r="C2" t="n">
         <v>123668.3592209684</v>
@@ -26322,10 +26322,10 @@
         <v>123668.3592209684</v>
       </c>
       <c r="E2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="F2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="G2" t="n">
         <v>123668.3592209684</v>
@@ -26346,7 +26346,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="M2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="N2" t="n">
         <v>123668.3592209684</v>
@@ -26355,7 +26355,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="P2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136403.8457068847</v>
+        <v>-137081.3745662787</v>
       </c>
       <c r="C6" t="n">
-        <v>38551.66418622945</v>
+        <v>37874.13532683536</v>
       </c>
       <c r="D6" t="n">
-        <v>38551.6641862294</v>
+        <v>37874.13532683534</v>
       </c>
       <c r="E6" t="n">
-        <v>72179.26418622937</v>
+        <v>71501.73532683536</v>
       </c>
       <c r="F6" t="n">
-        <v>72179.26418622935</v>
+        <v>71501.73532683538</v>
       </c>
       <c r="G6" t="n">
-        <v>72179.26418622941</v>
+        <v>71501.73532683535</v>
       </c>
       <c r="H6" t="n">
-        <v>72179.26418622941</v>
+        <v>71501.73532683541</v>
       </c>
       <c r="I6" t="n">
-        <v>72179.26418622938</v>
+        <v>71501.73532683536</v>
       </c>
       <c r="J6" t="n">
-        <v>-64415.53661966557</v>
+        <v>-65093.06547905959</v>
       </c>
       <c r="K6" t="n">
-        <v>72179.2641862294</v>
+        <v>71501.73532683539</v>
       </c>
       <c r="L6" t="n">
-        <v>72179.26418622938</v>
+        <v>71501.73532683539</v>
       </c>
       <c r="M6" t="n">
-        <v>72179.26418622937</v>
+        <v>71501.73532683538</v>
       </c>
       <c r="N6" t="n">
-        <v>72179.26418622943</v>
+        <v>71501.73532683538</v>
       </c>
       <c r="O6" t="n">
-        <v>72179.26418622938</v>
+        <v>71501.73532683536</v>
       </c>
       <c r="P6" t="n">
-        <v>72179.26418622934</v>
+        <v>71501.73532683535</v>
       </c>
     </row>
   </sheetData>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34780,7 +34780,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>506.6900639491208</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>471.1119924130248</v>
       </c>
       <c r="O6" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>471.1119924130247</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
@@ -35427,7 +35427,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N14" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O14" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M15" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M17" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N17" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O17" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>500.9700927793173</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>441.8756042977813</v>
+      </c>
+      <c r="N20" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M20" t="n">
-        <v>500.9700927793178</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>445.0368534430334</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M23" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M23" t="n">
-        <v>500.9700927793178</v>
       </c>
       <c r="N23" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M24" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N24" t="n">
-        <v>179.3869557635729</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>441.8756042977813</v>
+      </c>
+      <c r="O26" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L26" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>460.0037840019794</v>
       </c>
       <c r="P26" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
@@ -36919,22 +36919,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M32" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N32" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O32" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
+        <v>522.0635703700256</v>
+      </c>
+      <c r="M35" t="n">
         <v>460.0037840019794</v>
       </c>
-      <c r="M35" t="n">
-        <v>522.0635703700256</v>
-      </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>522.0635703700256</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P36" t="n">
-        <v>471.1119924130247</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="M41" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
         <v>522.0635703700256</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
-        <v>147.5918456237784</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="P42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
         <v>522.0635703700256</v>
@@ -38028,10 +38028,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O44" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
+        <v>338.0047407346341</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N45" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O45" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P45" t="n">
-        <v>40.55973291537975</v>
-      </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
